--- a/data/CryptoData.xlsx
+++ b/data/CryptoData.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanka\workspace\ChangeRetrival\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD3ADC2-2F04-4782-BC3D-1566BB6EE6F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAF10DE-1550-4517-B3B4-CC32B27F4863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
-    <sheet name="Data18-36-21" r:id="rId5" sheetId="4"/>
+    <sheet name="Data18-25-21 11-25" sheetId="9" r:id="rId1"/>
+    <sheet name="Data18-31-21 11-31" r:id="rId5" sheetId="10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="164">
   <si>
     <t>Base Market</t>
   </si>
@@ -835,18 +835,2259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BAA9BF-9F56-4B70-8906-B33F53685329}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>51955</v>
+      </c>
+      <c r="D2">
+        <v>52750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5.3750000894069672E-2</v>
+      </c>
+      <c r="D3">
+        <v>5.4110001772642136E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0.54720002412796021</v>
+      </c>
+      <c r="D4">
+        <v>0.55500000715255737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>370</v>
+      </c>
+      <c r="D5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4.950200080871582</v>
+      </c>
+      <c r="D6">
+        <v>4.9727001190185547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1896</v>
+      </c>
+      <c r="D7">
+        <v>1913.9000244140625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1.5390000306069851E-2</v>
+      </c>
+      <c r="D8">
+        <v>1.5799999237060547E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0.14222000539302826</v>
+      </c>
+      <c r="D9">
+        <v>0.14499999582767487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1.1599999852478504E-3</v>
+      </c>
+      <c r="D10">
+        <v>1.3569999719038606E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>2.234000014141202E-3</v>
+      </c>
+      <c r="D11">
+        <v>2.2770001087337732E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1.9189000129699707</v>
+      </c>
+      <c r="D12">
+        <v>1.9739999771118164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>233</v>
+      </c>
+      <c r="D13">
+        <v>238.60000610351563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>0.99970000982284546</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>1.500000013038516E-3</v>
+      </c>
+      <c r="D15">
+        <v>1.5872999792918563E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>3.9900001138448715E-4</v>
+      </c>
+      <c r="D16">
+        <v>3.9900001138448715E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>3.8959999073995277E-5</v>
+      </c>
+      <c r="D17">
+        <v>3.8959999073995277E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>0.59350001811981201</v>
+      </c>
+      <c r="D18">
+        <v>0.60009998083114624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>264.07998657226563</v>
+      </c>
+      <c r="D19">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>1.6176999807357788</v>
+      </c>
+      <c r="D20">
+        <v>1.628000020980835</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>718</v>
+      </c>
+      <c r="D21">
+        <v>727.46002197265625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>248.03999328613281</v>
+      </c>
+      <c r="D22">
+        <v>248.05000305175781</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>1.0015000104904175</v>
+      </c>
+      <c r="D23">
+        <v>1.0015000104904175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>0.99599999189376831</v>
+      </c>
+      <c r="D24">
+        <v>1.003000020980835</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>6.6331000328063965</v>
+      </c>
+      <c r="D25">
+        <v>6.6999998092651367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>0.46939998865127563</v>
+      </c>
+      <c r="D26">
+        <v>0.669700026512146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>1.4169999631121755E-3</v>
+      </c>
+      <c r="D27">
+        <v>1.449999981559813E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>4.0190000087022781E-2</v>
+      </c>
+      <c r="D28">
+        <v>4.4599998742341995E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>3.3289999701082706E-3</v>
+      </c>
+      <c r="D29">
+        <v>3.3289999701082706E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>3.5677999258041382E-2</v>
+      </c>
+      <c r="D30">
+        <v>3.568200021982193E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>7.0899998536333442E-4</v>
+      </c>
+      <c r="D31">
+        <v>7.0899998536333442E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>0.10859999805688858</v>
+      </c>
+      <c r="D32">
+        <v>0.10859999805688858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>0.10751000046730042</v>
+      </c>
+      <c r="D33">
+        <v>0.10751999914646149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>3.6105399131774902</v>
+      </c>
+      <c r="D34">
+        <v>3.6105399131774902</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>8.1529997289180756E-2</v>
+      </c>
+      <c r="D35">
+        <v>8.3679996430873871E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>1.6400000313296914E-3</v>
+      </c>
+      <c r="D36">
+        <v>1.6400000313296914E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>1.3100000098347664E-2</v>
+      </c>
+      <c r="D37">
+        <v>1.3100000098347664E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>2.8000000747852027E-4</v>
+      </c>
+      <c r="D38">
+        <v>2.8000000747852027E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>2.2100000642240047E-3</v>
+      </c>
+      <c r="D39">
+        <v>2.2100000642240047E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>1.0099999599333387E-5</v>
+      </c>
+      <c r="D40">
+        <v>1.0099999599333387E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>0.51020997762680054</v>
+      </c>
+      <c r="D41">
+        <v>0.51424002647399902</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>4.75</v>
+      </c>
+      <c r="D42">
+        <v>4.8000001907348633</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>1.2576000299304724E-3</v>
+      </c>
+      <c r="D43">
+        <v>1.2954999692738056E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>0.25519999861717224</v>
+      </c>
+      <c r="D44">
+        <v>0.25900000333786011</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>6.1280000954866409E-2</v>
+      </c>
+      <c r="D45">
+        <v>6.1280000954866409E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>2.0109999924898148E-2</v>
+      </c>
+      <c r="D46">
+        <v>2.0470000803470612E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>0.12393999844789505</v>
+      </c>
+      <c r="D47">
+        <v>0.12749999761581421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>0.92953997850418091</v>
+      </c>
+      <c r="D48">
+        <v>0.93739998340606689</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>7.8960001468658447E-2</v>
+      </c>
+      <c r="D49">
+        <v>7.8960001468658447E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>271.91000366210938</v>
+      </c>
+      <c r="D50">
+        <v>271.91000366210938</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>24.740999221801758</v>
+      </c>
+      <c r="D51">
+        <v>25.089000701904297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="D52">
+        <v>1.4500000476837158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>33.070999145507813</v>
+      </c>
+      <c r="D53">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>7.2259998321533203</v>
+      </c>
+      <c r="D54">
+        <v>7.2620000839233398</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>15.347900390625</v>
+      </c>
+      <c r="D55">
+        <v>16.499500274658203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>1.3339999914169312</v>
+      </c>
+      <c r="D56">
+        <v>1.3468999862670898</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>165</v>
+      </c>
+      <c r="D57">
+        <v>172.60517883300781</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>11.802000045776367</v>
+      </c>
+      <c r="D58">
+        <v>11.802000045776367</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>0.19439999759197235</v>
+      </c>
+      <c r="D59">
+        <v>0.19439999759197235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>0.56277000904083252</v>
+      </c>
+      <c r="D60">
+        <v>0.5690000057220459</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>3.4923999309539795</v>
+      </c>
+      <c r="D61">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>0.46939998865127563</v>
+      </c>
+      <c r="D62">
+        <v>0.47400000691413879</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>2.6590000838041306E-2</v>
+      </c>
+      <c r="D63">
+        <v>2.7400000020861626E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>0.12144000083208084</v>
+      </c>
+      <c r="D64">
+        <v>0.14550000429153442</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>0.31327000260353088</v>
+      </c>
+      <c r="D65">
+        <v>0.31692999601364136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>33.840000152587891</v>
+      </c>
+      <c r="D66">
+        <v>34.160999298095703</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>1.8100000452250242E-3</v>
+      </c>
+      <c r="D67">
+        <v>1.8100000452250242E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>0.24199999868869781</v>
+      </c>
+      <c r="D68">
+        <v>0.26194998621940613</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>6.653900146484375</v>
+      </c>
+      <c r="D69">
+        <v>6.8797998428344727</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>1.3089999556541443E-2</v>
+      </c>
+      <c r="D70">
+        <v>1.3100000098347664E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>27.850000381469727</v>
+      </c>
+      <c r="D71">
+        <v>28.270000457763672</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>0.42489999532699585</v>
+      </c>
+      <c r="D72">
+        <v>0.44200000166893005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>6.218000128865242E-2</v>
+      </c>
+      <c r="D73">
+        <v>6.3000001013278961E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>0.18279999494552612</v>
+      </c>
+      <c r="D74">
+        <v>0.19193999469280243</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>0.53140002489089966</v>
+      </c>
+      <c r="D75">
+        <v>0.53140002489089966</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>0.67019999027252197</v>
+      </c>
+      <c r="D76">
+        <v>0.67830002307891846</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>2.4090000079013407E-4</v>
+      </c>
+      <c r="D77">
+        <v>2.4199999461416155E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>168.91850280761719</v>
+      </c>
+      <c r="D78">
+        <v>181.99980163574219</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>3.8068998605012894E-2</v>
+      </c>
+      <c r="D79">
+        <v>3.8632001727819443E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>0.22189000248908997</v>
+      </c>
+      <c r="D80">
+        <v>0.22287000715732574</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>4.8993000984191895</v>
+      </c>
+      <c r="D81">
+        <v>4.9402999877929688</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>2.849699929356575E-2</v>
+      </c>
+      <c r="D82">
+        <v>2.862199954688549E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>1.0018999576568604</v>
+      </c>
+      <c r="D83">
+        <v>1.0022000074386597</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>2.734999917447567E-2</v>
+      </c>
+      <c r="D84">
+        <v>2.9820000752806664E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>1.9469000399112701E-2</v>
+      </c>
+      <c r="D85">
+        <v>1.9469000399112701E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>0.30640000104904175</v>
+      </c>
+      <c r="D86">
+        <v>0.30989998579025269</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>24</v>
+      </c>
+      <c r="D87">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>17.466400146484375</v>
+      </c>
+      <c r="D88">
+        <v>17.65049934387207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>5.601000040769577E-2</v>
+      </c>
+      <c r="D89">
+        <v>5.601000040769577E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>0.2391200065612793</v>
+      </c>
+      <c r="D90">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>6.1769999563694E-2</v>
+      </c>
+      <c r="D91">
+        <v>6.259000301361084E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>2.013700008392334</v>
+      </c>
+      <c r="D92">
+        <v>2.0339999198913574</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>1.0979999788105488E-2</v>
+      </c>
+      <c r="D93">
+        <v>1.1292999610304832E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>0.59869998693466187</v>
+      </c>
+      <c r="D94">
+        <v>0.60189998149871826</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>0.80365002155303955</v>
+      </c>
+      <c r="D95">
+        <v>0.80425000190734863</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>5.2556801587343216E-2</v>
+      </c>
+      <c r="D96">
+        <v>5.4600000381469727E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>43.479000091552734</v>
+      </c>
+      <c r="D97">
+        <v>43.979999542236328</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>0.80339998006820679</v>
+      </c>
+      <c r="D98">
+        <v>0.81800001859664917</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>467</v>
+      </c>
+      <c r="D99">
+        <v>476.989990234375</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>0.1344899982213974</v>
+      </c>
+      <c r="D100">
+        <v>0.1344899982213974</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>7.6820001006126404E-2</v>
+      </c>
+      <c r="D101">
+        <v>8.4250003099441528E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>0.63630002737045288</v>
+      </c>
+      <c r="D102">
+        <v>0.6600000262260437</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>24.368999481201172</v>
+      </c>
+      <c r="D103">
+        <v>24.665000915527344</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>1.031000018119812</v>
+      </c>
+      <c r="D104">
+        <v>1.0560200214385986</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>2.5039999485015869</v>
+      </c>
+      <c r="D105">
+        <v>2.5999999046325684</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>2671.72998046875</v>
+      </c>
+      <c r="D106">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>2.4068000316619873</v>
+      </c>
+      <c r="D107">
+        <v>2.4186000823974609</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108">
+        <v>3.9777998924255371</v>
+      </c>
+      <c r="D108">
+        <v>4.0317997932434082</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109">
+        <v>154.5</v>
+      </c>
+      <c r="D109">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>1.9500000402331352E-2</v>
+      </c>
+      <c r="D110">
+        <v>2.1110000088810921E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <v>2.1996999159455299E-2</v>
+      </c>
+      <c r="D111">
+        <v>2.1998999640345573E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <v>0.14249999821186066</v>
+      </c>
+      <c r="D112">
+        <v>0.14249999821186066</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>32.099998474121094</v>
+      </c>
+      <c r="D113">
+        <v>32.472900390625</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>44424.8984375</v>
+      </c>
+      <c r="D114">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>2.5340000167489052E-2</v>
+      </c>
+      <c r="D115">
+        <v>2.759999968111515E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116">
+        <v>0.25321298837661743</v>
+      </c>
+      <c r="D116">
+        <v>0.27354401350021362</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>21.659799575805664</v>
+      </c>
+      <c r="D117">
+        <v>22.17140007019043</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>0.11719000339508057</v>
+      </c>
+      <c r="D118">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>186</v>
+      </c>
+      <c r="D119">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>28.142999649047852</v>
+      </c>
+      <c r="D120">
+        <v>28.386999130249023</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121">
+        <v>3323.610107421875</v>
+      </c>
+      <c r="D121">
+        <v>3429.080078125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <v>0.71710002422332764</v>
+      </c>
+      <c r="D122">
+        <v>0.76969999074935913</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123">
+        <v>461.84100341796875</v>
+      </c>
+      <c r="D123">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124">
+        <v>44.085300445556641</v>
+      </c>
+      <c r="D124">
+        <v>44.396999359130859</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <v>2.9200000762939453</v>
+      </c>
+      <c r="D125">
+        <v>3.0079998970031738</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126">
+        <v>4.2680997848510742</v>
+      </c>
+      <c r="D126">
+        <v>4.7389998435974121</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127">
+        <v>4.2399997711181641</v>
+      </c>
+      <c r="D127">
+        <v>4.3499999046325684</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128">
+        <v>40.384899139404297</v>
+      </c>
+      <c r="D128">
+        <v>41.990001678466797</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129">
+        <v>0.61019998788833618</v>
+      </c>
+      <c r="D129">
+        <v>0.63380002975463867</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>5.3449999541044235E-2</v>
+      </c>
+      <c r="D130">
+        <v>5.3449999541044235E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>0.22020000219345093</v>
+      </c>
+      <c r="D131">
+        <v>0.22609999775886536</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132">
+        <v>1.1619999408721924</v>
+      </c>
+      <c r="D132">
+        <v>1.2444000244140625</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>1.7398999929428101</v>
+      </c>
+      <c r="D133">
+        <v>1.7761000394821167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134">
+        <v>14.949999809265137</v>
+      </c>
+      <c r="D134">
+        <v>19.999900817871094</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>5.299999937415123E-2</v>
+      </c>
+      <c r="D135">
+        <v>5.4000001400709152E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>1.00409996509552</v>
+      </c>
+      <c r="D136">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>5.0104999542236328</v>
+      </c>
+      <c r="D137">
+        <v>8.8000001907348633</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <v>0.27559998631477356</v>
+      </c>
+      <c r="D138">
+        <v>0.29780000448226929</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139">
+        <v>16.368000030517578</v>
+      </c>
+      <c r="D139">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <v>7.0560002326965332</v>
+      </c>
+      <c r="D140">
+        <v>7.2800002098083496</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141">
+        <v>9.3999996185302734</v>
+      </c>
+      <c r="D141">
+        <v>14.739999771118164</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142">
+        <v>16.375999450683594</v>
+      </c>
+      <c r="D142">
+        <v>16.943000793457031</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143">
+        <v>18.620000839233398</v>
+      </c>
+      <c r="D143">
+        <v>18.878000259399414</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D160"/>
   <sheetViews>
@@ -876,7 +3117,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>52089.0</v>
+        <v>52100.0</v>
       </c>
       <c r="D2" t="n">
         <v>52750.0</v>
@@ -890,7 +3131,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0538799986243248</v>
+        <v>0.0538100004196167</v>
       </c>
       <c r="D3" t="n">
         <v>0.054110001772642136</v>
@@ -904,7 +3145,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5457500219345093</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D4" t="n">
         <v>0.5550000071525574</v>
@@ -932,10 +3173,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.929900169372559</v>
+        <v>4.950200080871582</v>
       </c>
       <c r="D6" t="n">
-        <v>4.9670000076293945</v>
+        <v>4.972700119018555</v>
       </c>
     </row>
     <row r="7">
@@ -946,7 +3187,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>1900.0</v>
+        <v>1896.0</v>
       </c>
       <c r="D7" t="n">
         <v>1913.9000244140625</v>
@@ -960,7 +3201,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.015479999594390392</v>
+        <v>0.01522000040858984</v>
       </c>
       <c r="D8" t="n">
         <v>0.015799999237060547</v>
@@ -974,7 +3215,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.14000000059604645</v>
+        <v>0.1415800005197525</v>
       </c>
       <c r="D9" t="n">
         <v>0.14499999582767487</v>
@@ -988,7 +3229,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0011620000004768372</v>
+        <v>0.001154000055976212</v>
       </c>
       <c r="D10" t="n">
         <v>0.0013569999719038606</v>
@@ -1002,10 +3243,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0022219999227672815</v>
+        <v>0.002234000014141202</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0022219999227672815</v>
+        <v>0.0022770001087337732</v>
       </c>
     </row>
     <row r="12">
@@ -1016,7 +3257,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>1.8996000289916992</v>
+        <v>1.9189000129699707</v>
       </c>
       <c r="D12" t="n">
         <v>1.9739999771118164</v>
@@ -1030,7 +3271,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>231.89999389648438</v>
+        <v>233.0</v>
       </c>
       <c r="D13" t="n">
         <v>238.60000610351562</v>
@@ -1044,7 +3285,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>0.9997000098228455</v>
       </c>
       <c r="D14" t="n">
         <v>1.0</v>
@@ -1058,7 +3299,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0015010000206530094</v>
+        <v>0.001500000013038516</v>
       </c>
       <c r="D15" t="n">
         <v>0.0015872999792918563</v>
@@ -1100,7 +3341,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5893999934196472</v>
+        <v>0.593500018119812</v>
       </c>
       <c r="D18" t="n">
         <v>0.6000999808311462</v>
@@ -1114,7 +3355,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>261.7200012207031</v>
+        <v>264.0799865722656</v>
       </c>
       <c r="D19" t="n">
         <v>270.0</v>
@@ -1128,7 +3369,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>1.6065000295639038</v>
+        <v>1.6121000051498413</v>
       </c>
       <c r="D20" t="n">
         <v>1.628000020980835</v>
@@ -1142,7 +3383,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>721.4199829101562</v>
+        <v>718.0</v>
       </c>
       <c r="D21" t="n">
         <v>727.4600219726562</v>
@@ -1156,7 +3397,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>248.0</v>
+        <v>248.0399932861328</v>
       </c>
       <c r="D22" t="n">
         <v>248.0500030517578</v>
@@ -1198,7 +3439,7 @@
         <v>5</v>
       </c>
       <c r="C25" t="n">
-        <v>6.587800025939941</v>
+        <v>6.6331000328063965</v>
       </c>
       <c r="D25" t="n">
         <v>6.699999809265137</v>
@@ -1212,7 +3453,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4936999976634979</v>
+        <v>0.47290000319480896</v>
       </c>
       <c r="D26" t="n">
         <v>0.669700026512146</v>
@@ -1226,7 +3467,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001373999984934926</v>
+        <v>0.0014120000414550304</v>
       </c>
       <c r="D27" t="n">
         <v>0.001449999981559813</v>
@@ -1240,7 +3481,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>0.041099999099969864</v>
+        <v>0.04019000008702278</v>
       </c>
       <c r="D28" t="n">
         <v>0.044599998742341995</v>
@@ -1268,7 +3509,7 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03568200021982193</v>
+        <v>0.035677000880241394</v>
       </c>
       <c r="D30" t="n">
         <v>0.03568200021982193</v>
@@ -1310,10 +3551,10 @@
         <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>0.10292000323534012</v>
+        <v>0.10485000163316727</v>
       </c>
       <c r="D33" t="n">
-        <v>0.10585000365972519</v>
+        <v>0.10751999914646149</v>
       </c>
     </row>
     <row r="34">
@@ -1324,10 +3565,10 @@
         <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>3.593630075454712</v>
+        <v>3.6105399131774902</v>
       </c>
       <c r="D34" t="n">
-        <v>3.5999999046325684</v>
+        <v>3.6105399131774902</v>
       </c>
     </row>
     <row r="35">
@@ -1338,7 +3579,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08367999643087387</v>
+        <v>0.08152999728918076</v>
       </c>
       <c r="D35" t="n">
         <v>0.08367999643087387</v>
@@ -1422,10 +3663,10 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5016599893569946</v>
+        <v>0.5095999836921692</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5134199857711792</v>
+        <v>0.514240026473999</v>
       </c>
     </row>
     <row r="42">
@@ -1436,7 +3677,7 @@
         <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>4.695499897003174</v>
+        <v>4.75</v>
       </c>
       <c r="D42" t="n">
         <v>4.800000190734863</v>
@@ -1450,7 +3691,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="n">
-        <v>0.001255100010894239</v>
+        <v>0.001253900001756847</v>
       </c>
       <c r="D43" t="n">
         <v>0.0012954999692738056</v>
@@ -1464,7 +3705,7 @@
         <v>5</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2531000077724457</v>
+        <v>0.25450000166893005</v>
       </c>
       <c r="D44" t="n">
         <v>0.2590000033378601</v>
@@ -1478,10 +3719,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="n">
-        <v>0.06049000099301338</v>
+        <v>0.06199999898672104</v>
       </c>
       <c r="D45" t="n">
-        <v>0.061000000685453415</v>
+        <v>0.06199999898672104</v>
       </c>
     </row>
     <row r="46">
@@ -1492,7 +3733,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0.019999999552965164</v>
+        <v>0.020160000771284103</v>
       </c>
       <c r="D46" t="n">
         <v>0.02047000080347061</v>
@@ -1506,10 +3747,10 @@
         <v>5</v>
       </c>
       <c r="C47" t="n">
-        <v>0.122529998421669</v>
+        <v>0.12408000230789185</v>
       </c>
       <c r="D47" t="n">
-        <v>0.12495999783277512</v>
+        <v>0.1274999976158142</v>
       </c>
     </row>
     <row r="48">
@@ -1520,10 +3761,10 @@
         <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9182100296020508</v>
+        <v>0.9354100227355957</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9210000038146973</v>
+        <v>0.9373999834060669</v>
       </c>
     </row>
     <row r="49">
@@ -1534,10 +3775,10 @@
         <v>5</v>
       </c>
       <c r="C49" t="n">
-        <v>0.07670000195503235</v>
+        <v>0.08079999685287476</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07872000336647034</v>
+        <v>0.08079999685287476</v>
       </c>
     </row>
     <row r="50">
@@ -1548,7 +3789,7 @@
         <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>263.0799865722656</v>
+        <v>271.9100036621094</v>
       </c>
       <c r="D50" t="n">
         <v>271.9100036621094</v>
@@ -1562,7 +3803,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>24.621000289916992</v>
+        <v>24.698999404907227</v>
       </c>
       <c r="D51" t="n">
         <v>25.089000701904297</v>
@@ -1576,7 +3817,7 @@
         <v>5</v>
       </c>
       <c r="C52" t="n">
-        <v>1.4479999542236328</v>
+        <v>1.4270000457763672</v>
       </c>
       <c r="D52" t="n">
         <v>1.4500000476837158</v>
@@ -1590,7 +3831,7 @@
         <v>5</v>
       </c>
       <c r="C53" t="n">
-        <v>33.22060012817383</v>
+        <v>33.09000015258789</v>
       </c>
       <c r="D53" t="n">
         <v>33.5</v>
@@ -1604,7 +3845,7 @@
         <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>7.0980000495910645</v>
+        <v>7.160999774932861</v>
       </c>
       <c r="D54" t="n">
         <v>7.26200008392334</v>
@@ -1618,7 +3859,7 @@
         <v>5</v>
       </c>
       <c r="C55" t="n">
-        <v>15.285200119018555</v>
+        <v>15.248000144958496</v>
       </c>
       <c r="D55" t="n">
         <v>16.499500274658203</v>
@@ -1632,10 +3873,10 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>1.3300000429153442</v>
+        <v>1.3339999914169312</v>
       </c>
       <c r="D56" t="n">
-        <v>1.343999981880188</v>
+        <v>1.3468999862670898</v>
       </c>
     </row>
     <row r="57">
@@ -1646,7 +3887,7 @@
         <v>5</v>
       </c>
       <c r="C57" t="n">
-        <v>165.32000732421875</v>
+        <v>166.11000061035156</v>
       </c>
       <c r="D57" t="n">
         <v>172.6051788330078</v>
@@ -1660,7 +3901,7 @@
         <v>5</v>
       </c>
       <c r="C58" t="n">
-        <v>11.72089958190918</v>
+        <v>11.802000045776367</v>
       </c>
       <c r="D58" t="n">
         <v>11.802000045776367</v>
@@ -1674,10 +3915,10 @@
         <v>5</v>
       </c>
       <c r="C59" t="n">
-        <v>0.17790000140666962</v>
+        <v>0.19286000728607178</v>
       </c>
       <c r="D59" t="n">
-        <v>0.18000000715255737</v>
+        <v>0.19674000144004822</v>
       </c>
     </row>
     <row r="60">
@@ -1688,10 +3929,10 @@
         <v>5</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5654900074005127</v>
+        <v>0.5627700090408325</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5673400163650513</v>
+        <v>0.5690000057220459</v>
       </c>
     </row>
     <row r="61">
@@ -1702,7 +3943,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>3.5</v>
+        <v>3.4147000312805176</v>
       </c>
       <c r="D61" t="n">
         <v>3.5</v>
@@ -1716,10 +3957,10 @@
         <v>5</v>
       </c>
       <c r="C62" t="n">
-        <v>0.47279998660087585</v>
+        <v>0.4693000018596649</v>
       </c>
       <c r="D62" t="n">
-        <v>0.47279998660087585</v>
+        <v>0.4740000069141388</v>
       </c>
     </row>
     <row r="63">
@@ -1730,7 +3971,7 @@
         <v>5</v>
       </c>
       <c r="C63" t="n">
-        <v>0.026200000196695328</v>
+        <v>0.026009999215602875</v>
       </c>
       <c r="D63" t="n">
         <v>0.027400000020861626</v>
@@ -1744,7 +3985,7 @@
         <v>5</v>
       </c>
       <c r="C64" t="n">
-        <v>0.12219999730587006</v>
+        <v>0.12078999727964401</v>
       </c>
       <c r="D64" t="n">
         <v>0.14550000429153442</v>
@@ -1758,10 +3999,10 @@
         <v>5</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3152199983596802</v>
+        <v>0.3132700026035309</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3152199983596802</v>
+        <v>0.31692999601364136</v>
       </c>
     </row>
     <row r="66">
@@ -1772,7 +4013,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>33.845001220703125</v>
+        <v>33.84000015258789</v>
       </c>
       <c r="D66" t="n">
         <v>34.1609992980957</v>
@@ -1800,7 +4041,7 @@
         <v>5</v>
       </c>
       <c r="C68" t="n">
-        <v>0.23827999830245972</v>
+        <v>0.24199999868869781</v>
       </c>
       <c r="D68" t="n">
         <v>0.26194998621940613</v>
@@ -1814,7 +4055,7 @@
         <v>5</v>
       </c>
       <c r="C69" t="n">
-        <v>6.674900054931641</v>
+        <v>6.684299945831299</v>
       </c>
       <c r="D69" t="n">
         <v>6.879799842834473</v>
@@ -1828,10 +4069,10 @@
         <v>5</v>
       </c>
       <c r="C70" t="n">
-        <v>0.012849999591708183</v>
+        <v>0.013000000268220901</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0129399998113513</v>
+        <v>0.013100000098347664</v>
       </c>
     </row>
     <row r="71">
@@ -1842,7 +4083,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>27.350000381469727</v>
+        <v>27.850000381469727</v>
       </c>
       <c r="D71" t="n">
         <v>28.270000457763672</v>
@@ -1856,7 +4097,7 @@
         <v>5</v>
       </c>
       <c r="C72" t="n">
-        <v>0.42489999532699585</v>
+        <v>0.42100000381469727</v>
       </c>
       <c r="D72" t="n">
         <v>0.44200000166893005</v>
@@ -1870,7 +4111,7 @@
         <v>5</v>
       </c>
       <c r="C73" t="n">
-        <v>0.061969999223947525</v>
+        <v>0.06218000128865242</v>
       </c>
       <c r="D73" t="n">
         <v>0.06300000101327896</v>
@@ -1884,7 +4125,7 @@
         <v>5</v>
       </c>
       <c r="C74" t="n">
-        <v>0.18599000573158264</v>
+        <v>0.18279999494552612</v>
       </c>
       <c r="D74" t="n">
         <v>0.19193999469280243</v>
@@ -1912,7 +4153,7 @@
         <v>5</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6725999712944031</v>
+        <v>0.6629999876022339</v>
       </c>
       <c r="D76" t="n">
         <v>0.6783000230789185</v>
@@ -1926,10 +4167,10 @@
         <v>5</v>
       </c>
       <c r="C77" t="n">
-        <v>2.4080000002868474E-4</v>
+        <v>2.4090000079013407E-4</v>
       </c>
       <c r="D77" t="n">
-        <v>2.4130000383593142E-4</v>
+        <v>2.4199999461416155E-4</v>
       </c>
     </row>
     <row r="78">
@@ -1940,7 +4181,7 @@
         <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>167.99989318847656</v>
+        <v>168.80369567871094</v>
       </c>
       <c r="D78" t="n">
         <v>181.9998016357422</v>
@@ -1954,7 +4195,7 @@
         <v>5</v>
       </c>
       <c r="C79" t="n">
-        <v>0.03799999877810478</v>
+        <v>0.038068998605012894</v>
       </c>
       <c r="D79" t="n">
         <v>0.03863200172781944</v>
@@ -1968,10 +4209,10 @@
         <v>5</v>
       </c>
       <c r="C80" t="n">
-        <v>0.21850000321865082</v>
+        <v>0.22168999910354614</v>
       </c>
       <c r="D80" t="n">
-        <v>0.21994000673294067</v>
+        <v>0.22287000715732574</v>
       </c>
     </row>
     <row r="81">
@@ -1982,10 +4223,10 @@
         <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>4.871099948883057</v>
+        <v>4.928999900817871</v>
       </c>
       <c r="D81" t="n">
-        <v>4.871099948883057</v>
+        <v>4.940299987792969</v>
       </c>
     </row>
     <row r="82">
@@ -1996,10 +4237,10 @@
         <v>5</v>
       </c>
       <c r="C82" t="n">
-        <v>0.028541000559926033</v>
+        <v>0.02849699929356575</v>
       </c>
       <c r="D82" t="n">
-        <v>0.028617000207304955</v>
+        <v>0.02862199954688549</v>
       </c>
     </row>
     <row r="83">
@@ -2010,7 +4251,7 @@
         <v>5</v>
       </c>
       <c r="C83" t="n">
-        <v>1.0017000436782837</v>
+        <v>0.9972000122070312</v>
       </c>
       <c r="D83" t="n">
         <v>1.0022000074386597</v>
@@ -2024,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="C84" t="n">
-        <v>0.027219999581575394</v>
+        <v>0.027329999953508377</v>
       </c>
       <c r="D84" t="n">
         <v>0.029820000752806664</v>
@@ -2052,7 +4293,7 @@
         <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3098999857902527</v>
+        <v>0.30640000104904175</v>
       </c>
       <c r="D86" t="n">
         <v>0.3098999857902527</v>
@@ -2066,7 +4307,7 @@
         <v>5</v>
       </c>
       <c r="C87" t="n">
-        <v>23.683000564575195</v>
+        <v>24.0</v>
       </c>
       <c r="D87" t="n">
         <v>24.0</v>
@@ -2080,10 +4321,10 @@
         <v>5</v>
       </c>
       <c r="C88" t="n">
-        <v>16.998899459838867</v>
+        <v>17.5</v>
       </c>
       <c r="D88" t="n">
-        <v>17.036699295043945</v>
+        <v>17.65049934387207</v>
       </c>
     </row>
     <row r="89">
@@ -2094,10 +4335,10 @@
         <v>5</v>
       </c>
       <c r="C89" t="n">
-        <v>0.05550000071525574</v>
+        <v>0.05601000040769577</v>
       </c>
       <c r="D89" t="n">
-        <v>0.05558000132441521</v>
+        <v>0.05601000040769577</v>
       </c>
     </row>
     <row r="90">
@@ -2108,7 +4349,7 @@
         <v>5</v>
       </c>
       <c r="C90" t="n">
-        <v>0.23657000064849854</v>
+        <v>0.23760999739170074</v>
       </c>
       <c r="D90" t="n">
         <v>0.25</v>
@@ -2122,7 +4363,7 @@
         <v>5</v>
       </c>
       <c r="C91" t="n">
-        <v>0.062210001051425934</v>
+        <v>0.061769999563694</v>
       </c>
       <c r="D91" t="n">
         <v>0.06259000301361084</v>
@@ -2136,7 +4377,7 @@
         <v>5</v>
       </c>
       <c r="C92" t="n">
-        <v>1.9889999628067017</v>
+        <v>2.013700008392334</v>
       </c>
       <c r="D92" t="n">
         <v>2.0339999198913574</v>
@@ -2150,7 +4391,7 @@
         <v>5</v>
       </c>
       <c r="C93" t="n">
-        <v>0.011249000206589699</v>
+        <v>0.010979999788105488</v>
       </c>
       <c r="D93" t="n">
         <v>0.011292999610304832</v>
@@ -2178,7 +4419,7 @@
         <v>5</v>
       </c>
       <c r="C95" t="n">
-        <v>0.794409990310669</v>
+        <v>0.8036500215530396</v>
       </c>
       <c r="D95" t="n">
         <v>0.8042500019073486</v>
@@ -2192,7 +4433,7 @@
         <v>5</v>
       </c>
       <c r="C96" t="n">
-        <v>0.05328899994492531</v>
+        <v>0.052799999713897705</v>
       </c>
       <c r="D96" t="n">
         <v>0.05460000038146973</v>
@@ -2206,7 +4447,7 @@
         <v>5</v>
       </c>
       <c r="C97" t="n">
-        <v>42.78900146484375</v>
+        <v>43.479000091552734</v>
       </c>
       <c r="D97" t="n">
         <v>43.97999954223633</v>
@@ -2234,7 +4475,7 @@
         <v>5</v>
       </c>
       <c r="C99" t="n">
-        <v>471.3599853515625</v>
+        <v>467.0</v>
       </c>
       <c r="D99" t="n">
         <v>476.989990234375</v>
@@ -2248,10 +4489,10 @@
         <v>5</v>
       </c>
       <c r="C100" t="n">
-        <v>0.13425999879837036</v>
+        <v>0.13447999954223633</v>
       </c>
       <c r="D100" t="n">
-        <v>0.13439999520778656</v>
+        <v>0.1344899982213974</v>
       </c>
     </row>
     <row r="101">
@@ -2262,7 +4503,7 @@
         <v>5</v>
       </c>
       <c r="C101" t="n">
-        <v>0.07682999968528748</v>
+        <v>0.07735999673604965</v>
       </c>
       <c r="D101" t="n">
         <v>0.08425000309944153</v>
@@ -2276,7 +4517,7 @@
         <v>5</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6600000262260437</v>
+        <v>0.6363000273704529</v>
       </c>
       <c r="D102" t="n">
         <v>0.6600000262260437</v>
@@ -2290,7 +4531,7 @@
         <v>5</v>
       </c>
       <c r="C103" t="n">
-        <v>24.121000289916992</v>
+        <v>24.368999481201172</v>
       </c>
       <c r="D103" t="n">
         <v>24.665000915527344</v>
@@ -2304,7 +4545,7 @@
         <v>5</v>
       </c>
       <c r="C104" t="n">
-        <v>1.0286500453948975</v>
+        <v>1.031000018119812</v>
       </c>
       <c r="D104" t="n">
         <v>1.0560200214385986</v>
@@ -2318,7 +4559,7 @@
         <v>5</v>
       </c>
       <c r="C105" t="n">
-        <v>2.490000009536743</v>
+        <v>2.503999948501587</v>
       </c>
       <c r="D105" t="n">
         <v>2.5999999046325684</v>
@@ -2332,7 +4573,7 @@
         <v>5</v>
       </c>
       <c r="C106" t="n">
-        <v>2657.68994140625</v>
+        <v>2671.72998046875</v>
       </c>
       <c r="D106" t="n">
         <v>2676.0</v>
@@ -2346,7 +4587,7 @@
         <v>5</v>
       </c>
       <c r="C107" t="n">
-        <v>2.3994998931884766</v>
+        <v>2.4068000316619873</v>
       </c>
       <c r="D107" t="n">
         <v>2.418600082397461</v>
@@ -2360,7 +4601,7 @@
         <v>5</v>
       </c>
       <c r="C108" t="n">
-        <v>4.004000186920166</v>
+        <v>3.977799892425537</v>
       </c>
       <c r="D108" t="n">
         <v>4.031799793243408</v>
@@ -2374,7 +4615,7 @@
         <v>5</v>
       </c>
       <c r="C109" t="n">
-        <v>152.0</v>
+        <v>154.54299926757812</v>
       </c>
       <c r="D109" t="n">
         <v>158.0</v>
@@ -2402,10 +4643,10 @@
         <v>5</v>
       </c>
       <c r="C111" t="n">
-        <v>0.021578000858426094</v>
+        <v>0.0219969991594553</v>
       </c>
       <c r="D111" t="n">
-        <v>0.021940000355243683</v>
+        <v>0.021998999640345573</v>
       </c>
     </row>
     <row r="112">
@@ -2416,10 +4657,10 @@
         <v>5</v>
       </c>
       <c r="C112" t="n">
-        <v>0.13950000703334808</v>
+        <v>0.14249999821186066</v>
       </c>
       <c r="D112" t="n">
-        <v>0.14069999754428864</v>
+        <v>0.14249999821186066</v>
       </c>
     </row>
     <row r="113">
@@ -2430,7 +4671,7 @@
         <v>5</v>
       </c>
       <c r="C113" t="n">
-        <v>31.865999221801758</v>
+        <v>32.099998474121094</v>
       </c>
       <c r="D113" t="n">
         <v>32.472900390625</v>
@@ -2444,7 +4685,7 @@
         <v>5</v>
       </c>
       <c r="C114" t="n">
-        <v>44466.66015625</v>
+        <v>44424.8984375</v>
       </c>
       <c r="D114" t="n">
         <v>46000.0</v>
@@ -2458,7 +4699,7 @@
         <v>5</v>
       </c>
       <c r="C115" t="n">
-        <v>0.025116000324487686</v>
+        <v>0.025306999683380127</v>
       </c>
       <c r="D115" t="n">
         <v>0.02759999968111515</v>
@@ -2472,7 +4713,7 @@
         <v>5</v>
       </c>
       <c r="C116" t="n">
-        <v>0.25745999813079834</v>
+        <v>0.2546060085296631</v>
       </c>
       <c r="D116" t="n">
         <v>0.2735440135002136</v>
@@ -2486,7 +4727,7 @@
         <v>5</v>
       </c>
       <c r="C117" t="n">
-        <v>21.74209976196289</v>
+        <v>21.659799575805664</v>
       </c>
       <c r="D117" t="n">
         <v>22.17140007019043</v>
@@ -2500,7 +4741,7 @@
         <v>5</v>
       </c>
       <c r="C118" t="n">
-        <v>0.11584000289440155</v>
+        <v>0.11719000339508057</v>
       </c>
       <c r="D118" t="n">
         <v>0.125</v>
@@ -2514,7 +4755,7 @@
         <v>5</v>
       </c>
       <c r="C119" t="n">
-        <v>186.50900268554688</v>
+        <v>185.90699768066406</v>
       </c>
       <c r="D119" t="n">
         <v>195.0</v>
@@ -2528,7 +4769,7 @@
         <v>5</v>
       </c>
       <c r="C120" t="n">
-        <v>28.086000442504883</v>
+        <v>28.14299964904785</v>
       </c>
       <c r="D120" t="n">
         <v>28.386999130249023</v>
@@ -2542,7 +4783,7 @@
         <v>5</v>
       </c>
       <c r="C121" t="n">
-        <v>3300.8701171875</v>
+        <v>3323.610107421875</v>
       </c>
       <c r="D121" t="n">
         <v>3429.080078125</v>
@@ -2556,7 +4797,7 @@
         <v>5</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7279000282287598</v>
+        <v>0.7207000255584717</v>
       </c>
       <c r="D122" t="n">
         <v>0.7696999907493591</v>
@@ -2570,7 +4811,7 @@
         <v>5</v>
       </c>
       <c r="C123" t="n">
-        <v>457.9989929199219</v>
+        <v>461.84100341796875</v>
       </c>
       <c r="D123" t="n">
         <v>475.0</v>
@@ -2584,7 +4825,7 @@
         <v>5</v>
       </c>
       <c r="C124" t="n">
-        <v>44.111000061035156</v>
+        <v>44.08530044555664</v>
       </c>
       <c r="D124" t="n">
         <v>44.39699935913086</v>
@@ -2598,7 +4839,7 @@
         <v>5</v>
       </c>
       <c r="C125" t="n">
-        <v>2.9130001068115234</v>
+        <v>2.9200000762939453</v>
       </c>
       <c r="D125" t="n">
         <v>3.007999897003174</v>
@@ -2612,7 +4853,7 @@
         <v>5</v>
       </c>
       <c r="C126" t="n">
-        <v>4.268099784851074</v>
+        <v>4.276800155639648</v>
       </c>
       <c r="D126" t="n">
         <v>4.738999843597412</v>
@@ -2626,10 +4867,10 @@
         <v>5</v>
       </c>
       <c r="C127" t="n">
-        <v>4.2870001792907715</v>
+        <v>4.255000114440918</v>
       </c>
       <c r="D127" t="n">
-        <v>4.611000061035156</v>
+        <v>4.349999904632568</v>
       </c>
     </row>
     <row r="128">
@@ -2640,7 +4881,7 @@
         <v>5</v>
       </c>
       <c r="C128" t="n">
-        <v>39.71269989013672</v>
+        <v>40.387699127197266</v>
       </c>
       <c r="D128" t="n">
         <v>41.9900016784668</v>
@@ -2654,7 +4895,7 @@
         <v>5</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6121000051498413</v>
+        <v>0.6101999878883362</v>
       </c>
       <c r="D129" t="n">
         <v>0.6338000297546387</v>
@@ -2668,10 +4909,10 @@
         <v>5</v>
       </c>
       <c r="C130" t="n">
-        <v>0.051339998841285706</v>
+        <v>0.05325299873948097</v>
       </c>
       <c r="D130" t="n">
-        <v>0.05169900134205818</v>
+        <v>0.053449999541044235</v>
       </c>
     </row>
     <row r="131">
@@ -2696,7 +4937,7 @@
         <v>5</v>
       </c>
       <c r="C132" t="n">
-        <v>1.1492999792099</v>
+        <v>1.1619999408721924</v>
       </c>
       <c r="D132" t="n">
         <v>1.2444000244140625</v>
@@ -2710,7 +4951,7 @@
         <v>5</v>
       </c>
       <c r="C133" t="n">
-        <v>1.7026000022888184</v>
+        <v>1.73989999294281</v>
       </c>
       <c r="D133" t="n">
         <v>1.7761000394821167</v>
@@ -2724,7 +4965,7 @@
         <v>5</v>
       </c>
       <c r="C134" t="n">
-        <v>15.049099922180176</v>
+        <v>14.994999885559082</v>
       </c>
       <c r="D134" t="n">
         <v>19.999900817871094</v>
@@ -2738,7 +4979,7 @@
         <v>5</v>
       </c>
       <c r="C135" t="n">
-        <v>0.05323199927806854</v>
+        <v>0.05299999937415123</v>
       </c>
       <c r="D135" t="n">
         <v>0.05400000140070915</v>
@@ -2752,7 +4993,7 @@
         <v>5</v>
       </c>
       <c r="C136" t="n">
-        <v>1.024999976158142</v>
+        <v>1.00409996509552</v>
       </c>
       <c r="D136" t="n">
         <v>2.75</v>
@@ -2766,7 +5007,7 @@
         <v>5</v>
       </c>
       <c r="C137" t="n">
-        <v>5.326200008392334</v>
+        <v>5.165999889373779</v>
       </c>
       <c r="D137" t="n">
         <v>8.800000190734863</v>
@@ -2780,7 +5021,7 @@
         <v>5</v>
       </c>
       <c r="C138" t="n">
-        <v>0.28439998626708984</v>
+        <v>0.27559998631477356</v>
       </c>
       <c r="D138" t="n">
         <v>0.2978000044822693</v>
@@ -2794,7 +5035,7 @@
         <v>5</v>
       </c>
       <c r="C139" t="n">
-        <v>16.452999114990234</v>
+        <v>16.368000030517578</v>
       </c>
       <c r="D139" t="n">
         <v>17.0</v>
@@ -2808,7 +5049,7 @@
         <v>5</v>
       </c>
       <c r="C140" t="n">
-        <v>6.953999996185303</v>
+        <v>7.056000232696533</v>
       </c>
       <c r="D140" t="n">
         <v>7.28000020980835</v>
@@ -2822,7 +5063,7 @@
         <v>5</v>
       </c>
       <c r="C141" t="n">
-        <v>8.746999740600586</v>
+        <v>9.190999984741211</v>
       </c>
       <c r="D141" t="n">
         <v>14.739999771118164</v>
@@ -2836,7 +5077,7 @@
         <v>5</v>
       </c>
       <c r="C142" t="n">
-        <v>16.198999404907227</v>
+        <v>16.375999450683594</v>
       </c>
       <c r="D142" t="n">
         <v>16.94300079345703</v>
@@ -2850,7 +5091,7 @@
         <v>5</v>
       </c>
       <c r="C143" t="n">
-        <v>18.40999984741211</v>
+        <v>18.6200008392334</v>
       </c>
       <c r="D143" t="n">
         <v>18.878000259399414</v>

--- a/data/CryptoData.xlsx
+++ b/data/CryptoData.xlsx
@@ -15,6 +15,9 @@
   <sheets>
     <sheet name="Data18-25-21 11-25" sheetId="9" r:id="rId1"/>
     <sheet name="Data18-31-21 11-31" r:id="rId5" sheetId="10"/>
+    <sheet name="Data18-58-21 11-58" r:id="rId6" sheetId="11"/>
+    <sheet name="Data18-21-21 12-21" r:id="rId7" sheetId="12"/>
+    <sheet name="Data18-37-21 12-37" r:id="rId8" sheetId="13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="164">
   <si>
     <t>Base Market</t>
   </si>
@@ -5338,4 +5341,6763 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D160"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>52102.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>52750.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.05465000122785568</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05480000004172325</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5570399761199951</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.558650016784668</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>370.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.960000038146973</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.972700119018555</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1896.800048828125</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1913.9000244140625</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.015440000221133232</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.015799999237060547</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.14000000059604645</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.14499999582767487</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0011650000233203173</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0013569999719038606</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0022169998846948147</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0022770001087337732</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.9321000576019287</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.9739999771118164</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>238.60000610351562</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9961000084877014</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0015074999537318945</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0015872999792918563</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.9900001138448715E-4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.9900001138448715E-4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.895999907399528E-5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.895999907399528E-5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5899999737739563</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6000999808311462</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>267.70001220703125</v>
+      </c>
+      <c r="D19" t="n">
+        <v>270.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.6094000339508057</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.628000020980835</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>722.0900268554688</v>
+      </c>
+      <c r="D21" t="n">
+        <v>727.4600219726562</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>251.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.0015000104904175</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.0015000104904175</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9959999918937683</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.0019999742507935</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.546999931335449</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6.699999809265137</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.4765999913215637</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.669700026512146</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.001411000033840537</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.001449999981559813</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.04019000008702278</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.044599998742341995</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0033289999701082706</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0033289999701082706</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.035599999129772186</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.03568200021982193</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7.089999853633344E-4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7.089999853633344E-4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.10859999805688858</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.10859999805688858</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1033099964261055</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.10751999914646149</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.6045498847961426</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.6149799823760986</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0832500010728836</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.08367999643087387</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0016400000313296914</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0016400000313296914</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.013100000098347664</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.013100000098347664</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.800000074785203E-4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.800000074785203E-4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0022100000642240047</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0022100000642240047</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.0099999599333387E-5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.0099999599333387E-5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5139999985694885</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.514240026473999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.7444000244140625</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.800000190734863</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0012459000572562218</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0012954999692738056</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.2565000057220459</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.2590000033378601</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.06207999959588051</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.06207999959588051</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.019999999552965164</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.02047000080347061</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.1257299929857254</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.1274999976158142</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.9386900067329407</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.948710024356842</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0849900022149086</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.0849900022149086</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="n">
+        <v>270.5199890136719</v>
+      </c>
+      <c r="D50" t="n">
+        <v>272.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>24.267000198364258</v>
+      </c>
+      <c r="D51" t="n">
+        <v>25.089000701904297</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.4279999732971191</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.4500000476837158</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="n">
+        <v>32.77799987792969</v>
+      </c>
+      <c r="D53" t="n">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7.189000129699707</v>
+      </c>
+      <c r="D54" t="n">
+        <v>7.26200008392334</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="n">
+        <v>15.300299644470215</v>
+      </c>
+      <c r="D55" t="n">
+        <v>16.499500274658203</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.3212000131607056</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.3468999862670898</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="n">
+        <v>163.67999267578125</v>
+      </c>
+      <c r="D57" t="n">
+        <v>172.6051788330078</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="n">
+        <v>11.873900413513184</v>
+      </c>
+      <c r="D58" t="n">
+        <v>11.873900413513184</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.19619999825954437</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.1976500004529953</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.578000009059906</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.5793600082397461</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3.4147000312805176</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.45719999074935913</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.4740000069141388</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.025930000469088554</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.027400000020861626</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.12199000269174576</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.14550000429153442</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.3151099979877472</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.3178099989891052</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="n">
+        <v>33.534000396728516</v>
+      </c>
+      <c r="D66" t="n">
+        <v>34.1609992980957</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.0018100000452250242</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.0018100000452250242</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.24199999868869781</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.26194998621940613</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="D69" t="n">
+        <v>6.879799842834473</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.01322999969124794</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.013269999995827675</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>27.850000381469727</v>
+      </c>
+      <c r="D71" t="n">
+        <v>28.270000457763672</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.41830000281333923</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.44200000166893005</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.06261999905109406</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.06300000101327896</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.18279999494552612</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.19193999469280243</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.5314000248908997</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.5314000248908997</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.6600000262260437</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.6783000230789185</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.4249999842140824E-4</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.4249999842140824E-4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="n">
+        <v>171.15199279785156</v>
+      </c>
+      <c r="D78" t="n">
+        <v>181.9998016357422</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.03784999996423721</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.03863200172781944</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.22139999270439148</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.22287000715732574</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="n">
+        <v>4.9191999435424805</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4.940299987792969</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.028341000899672508</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.02862199954688549</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.0022000074386597</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.027809999883174896</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.029820000752806664</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.0194690003991127</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.0194690003991127</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.3028999865055084</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.3098999857902527</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="n">
+        <v>17.49329948425293</v>
+      </c>
+      <c r="D88" t="n">
+        <v>17.65049934387207</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.05795000120997429</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.05810999870300293</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.23788000643253326</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.061900001019239426</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.06259000301361084</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.0153000354766846</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.0339999198913574</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.011094000190496445</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.011292999610304832</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.5986999869346619</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.6018999814987183</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.8100000023841858</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.05268710106611252</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.05460000038146973</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="n">
+        <v>43.35599899291992</v>
+      </c>
+      <c r="D97" t="n">
+        <v>43.97999954223633</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.8033999800682068</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.8180000185966492</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="n">
+        <v>465.3900146484375</v>
+      </c>
+      <c r="D99" t="n">
+        <v>476.989990234375</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.13447999954223633</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.1344899982213974</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.07738000154495239</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.08425000309944153</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.6363000273704529</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.6600000262260437</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="n">
+        <v>24.399999618530273</v>
+      </c>
+      <c r="D103" t="n">
+        <v>24.665000915527344</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.031000018119812</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.0560200214385986</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2.490000009536743</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2.5999999046325684</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2675.179931640625</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2676.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.450000047683716</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2.450000047683716</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3.962399959564209</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4.031799793243408</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="n">
+        <v>153.61099243164062</v>
+      </c>
+      <c r="D109" t="n">
+        <v>158.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.01978999935090542</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.02111000008881092</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.022050000727176666</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.022129999473690987</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.14149999618530273</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.14249999821186066</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="n">
+        <v>31.879499435424805</v>
+      </c>
+      <c r="D113" t="n">
+        <v>32.472900390625</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>44424.87890625</v>
+      </c>
+      <c r="D114" t="n">
+        <v>46000.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.02473899908363819</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.02759999968111515</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.24996399879455566</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.2735440135002136</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="n">
+        <v>21.780000686645508</v>
+      </c>
+      <c r="D117" t="n">
+        <v>22.17140007019043</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.11869999766349792</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>195.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="n">
+        <v>28.14299964904785</v>
+      </c>
+      <c r="D120" t="n">
+        <v>28.386999130249023</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>3319.760009765625</v>
+      </c>
+      <c r="D121" t="n">
+        <v>3429.080078125</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.7207000255584717</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.7696999907493591</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" t="n">
+        <v>464.6820068359375</v>
+      </c>
+      <c r="D123" t="n">
+        <v>475.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" t="n">
+        <v>43.86479949951172</v>
+      </c>
+      <c r="D124" t="n">
+        <v>44.39699935913086</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2.878999948501587</v>
+      </c>
+      <c r="D125" t="n">
+        <v>3.007999897003174</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4.314000129699707</v>
+      </c>
+      <c r="D126" t="n">
+        <v>4.738999843597412</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4.235000133514404</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4.349999904632568</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>40.599998474121094</v>
+      </c>
+      <c r="D128" t="n">
+        <v>41.9900016784668</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.6101999878883362</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.6338000297546387</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.05439700186252594</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.05439700186252594</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.22200000286102295</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.22609999775886536</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.176800012588501</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.2444000244140625</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.6999000310897827</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.7761000394821167</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>15.01449966430664</v>
+      </c>
+      <c r="D134" t="n">
+        <v>19.999900817871094</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.05310000106692314</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.05400000140070915</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.0117000341415405</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.860000133514404</v>
+      </c>
+      <c r="D137" t="n">
+        <v>8.800000190734863</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.2816999852657318</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.2978000044822693</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" t="n">
+        <v>16.36400032043457</v>
+      </c>
+      <c r="D139" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" t="n">
+        <v>6.710999965667725</v>
+      </c>
+      <c r="D140" t="n">
+        <v>7.28000020980835</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>10.689000129699707</v>
+      </c>
+      <c r="D141" t="n">
+        <v>14.739999771118164</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>16.375999450683594</v>
+      </c>
+      <c r="D142" t="n">
+        <v>16.94300079345703</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="n">
+        <v>18.450000762939453</v>
+      </c>
+      <c r="D143" t="n">
+        <v>18.878000259399414</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D160"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>52000.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>52750.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0544000007212162</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05480000004172325</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5540000200271606</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.558650016784668</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>370.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.920300006866455</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.972700119018555</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1896.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1913.9000244140625</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.015599999576807022</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.015799999237060547</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.14000000059604645</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.14499999582767487</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0011579999700188637</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0013569999719038606</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.002208000048995018</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0022770001087337732</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.020699977874756</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.049999952316284</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>231.2100067138672</v>
+      </c>
+      <c r="D13" t="n">
+        <v>238.60000610351562</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9961000084877014</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0014899000525474548</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0015872999792918563</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.9900001138448715E-4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.9900001138448715E-4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.895999907399528E-5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.895999907399528E-5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5960999727249146</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6000999808311462</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>265.45001220703125</v>
+      </c>
+      <c r="D19" t="n">
+        <v>270.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.6064000129699707</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.628000020980835</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>719.3200073242188</v>
+      </c>
+      <c r="D21" t="n">
+        <v>727.4600219726562</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>240.38999938964844</v>
+      </c>
+      <c r="D22" t="n">
+        <v>251.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.0017000436782837</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.0017000436782837</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9959999918937683</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.0019999742507935</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.514500141143799</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6.699999809265137</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5012999773025513</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.669700026512146</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0014280000468716025</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.001449999981559813</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.039799999445676804</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.044599998742341995</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0033289999701082706</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0033289999701082706</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.035234998911619186</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.03568200021982193</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7.089999853633344E-4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7.089999853633344E-4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.10859999805688858</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.10859999805688858</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1038300022482872</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.10751999914646149</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.5739500522613525</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.6149799823760986</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.08229999989271164</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.08399999886751175</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0016400000313296914</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0016400000313296914</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.013100000098347664</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.013100000098347664</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.800000074785203E-4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.800000074785203E-4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0022100000642240047</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0022100000642240047</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.0099999599333387E-5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.0099999599333387E-5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5115600228309631</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.514240026473999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.69980001449585</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.800000190734863</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0012400000123307109</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0012954999692738056</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.25850000977516174</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.2599000036716461</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.06126999855041504</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.06207999959588051</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.020349999889731407</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.02047000080347061</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.12554000318050385</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.1274999976158142</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.9459999799728394</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.9488099813461304</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.08344999700784683</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.0849900022149086</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="n">
+        <v>270.510009765625</v>
+      </c>
+      <c r="D50" t="n">
+        <v>272.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>24.097999572753906</v>
+      </c>
+      <c r="D51" t="n">
+        <v>25.089000701904297</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.4079999923706055</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.4500000476837158</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="n">
+        <v>32.897499084472656</v>
+      </c>
+      <c r="D53" t="n">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7.13700008392334</v>
+      </c>
+      <c r="D54" t="n">
+        <v>7.26200008392334</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="n">
+        <v>15.331600189208984</v>
+      </c>
+      <c r="D55" t="n">
+        <v>16.499500274658203</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.333299994468689</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.3468999862670898</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="n">
+        <v>163.0500030517578</v>
+      </c>
+      <c r="D57" t="n">
+        <v>172.6051788330078</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="n">
+        <v>11.873900413513184</v>
+      </c>
+      <c r="D58" t="n">
+        <v>11.873900413513184</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.19257000088691711</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.1976500004529953</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.5809999704360962</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.5823299884796143</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3.4391000270843506</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.4652999937534332</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.4740000069141388</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.02590000070631504</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.027400000020861626</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.1226700022816658</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.14550000429153442</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.3126299977302551</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.3178099989891052</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="n">
+        <v>33.534000396728516</v>
+      </c>
+      <c r="D66" t="n">
+        <v>34.1609992980957</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.0018100000452250242</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.0018100000452250242</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.24075999855995178</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.26194998621940613</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="D69" t="n">
+        <v>6.879799842834473</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.013240000233054161</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.013269999995827675</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>27.219999313354492</v>
+      </c>
+      <c r="D71" t="n">
+        <v>28.270000457763672</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.41920000314712524</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.44200000166893005</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.06289999932050705</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.06300000101327896</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.179749995470047</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.19193999469280243</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.5314000248908997</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.5314000248908997</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.6600000262260437</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.6783000230789185</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.4090000079013407E-4</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.4259999918285757E-4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>181.9998016357422</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.03784999996423721</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.03863200172781944</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.2197899967432022</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.22287000715732574</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="n">
+        <v>4.883399963378906</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4.940299987792969</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.028068000450730324</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.02862199954688549</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.0022000074386597</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.0282600000500679</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.029820000752806664</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.0194690003991127</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.0194690003991127</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.30630001425743103</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.3098999857902527</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="n">
+        <v>24.32699966430664</v>
+      </c>
+      <c r="D87" t="n">
+        <v>24.32699966430664</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="n">
+        <v>17.808399200439453</v>
+      </c>
+      <c r="D88" t="n">
+        <v>17.952499389648438</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.05700000002980232</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.05810999870300293</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.23568999767303467</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.061900001019239426</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.06259000301361084</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.0399999618530273</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.0399999618530273</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.0110489996150136</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.011292999610304832</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.5986999869346619</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.6018999814987183</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.7901800274848938</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.8100000023841858</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.05256110057234764</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.05460000038146973</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="n">
+        <v>43.40299987792969</v>
+      </c>
+      <c r="D97" t="n">
+        <v>43.97999954223633</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.8033999800682068</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.8180000185966492</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="n">
+        <v>466.2200012207031</v>
+      </c>
+      <c r="D99" t="n">
+        <v>476.989990234375</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.13539999723434448</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.13539999723434448</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.07800000160932541</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.08425000309944153</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.6335999965667725</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.6600000262260437</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="n">
+        <v>24.121000289916992</v>
+      </c>
+      <c r="D103" t="n">
+        <v>24.665000915527344</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.0338499546051025</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.0560200214385986</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2.4630000591278076</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2.5999999046325684</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2675.179931640625</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2676.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.450000047683716</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2.4690001010894775</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3.958400011062622</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4.031799793243408</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="n">
+        <v>153.8260040283203</v>
+      </c>
+      <c r="D109" t="n">
+        <v>158.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.019600000232458115</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.02111000008881092</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.022029999643564224</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.022129999473690987</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.14190000295639038</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.14249999821186066</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="n">
+        <v>31.79759979248047</v>
+      </c>
+      <c r="D113" t="n">
+        <v>32.472900390625</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>44283.01171875</v>
+      </c>
+      <c r="D114" t="n">
+        <v>46000.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.02473899908363819</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.02759999968111515</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.250203013420105</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.2735440135002136</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="n">
+        <v>21.62459945678711</v>
+      </c>
+      <c r="D117" t="n">
+        <v>22.17140007019043</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.11817000061273575</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>195.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="n">
+        <v>28.14299964904785</v>
+      </c>
+      <c r="D120" t="n">
+        <v>28.386999130249023</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>3274.10009765625</v>
+      </c>
+      <c r="D121" t="n">
+        <v>3429.080078125</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.7307999730110168</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.7696999907493591</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" t="n">
+        <v>458.63800048828125</v>
+      </c>
+      <c r="D123" t="n">
+        <v>475.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" t="n">
+        <v>43.86479949951172</v>
+      </c>
+      <c r="D124" t="n">
+        <v>44.39699935913086</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2.875</v>
+      </c>
+      <c r="D125" t="n">
+        <v>3.007999897003174</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4.342199802398682</v>
+      </c>
+      <c r="D126" t="n">
+        <v>4.738999843597412</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4.2220001220703125</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4.349999904632568</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>41.424598693847656</v>
+      </c>
+      <c r="D128" t="n">
+        <v>41.9900016784668</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.6101999878883362</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.6338000297546387</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.05291000008583069</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.05452600121498108</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.22050000727176666</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.22609999775886536</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.1836999654769897</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.2444000244140625</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.7109999656677246</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.7761000394821167</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>19.999900817871094</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.05278100073337555</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.05400000140070915</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.0045000314712524</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.900000095367432</v>
+      </c>
+      <c r="D137" t="n">
+        <v>8.800000190734863</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.2750000059604645</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.2978000044822693</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" t="n">
+        <v>16.270999908447266</v>
+      </c>
+      <c r="D139" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" t="n">
+        <v>6.7769999504089355</v>
+      </c>
+      <c r="D140" t="n">
+        <v>7.28000020980835</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>9.753999710083008</v>
+      </c>
+      <c r="D141" t="n">
+        <v>14.739999771118164</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>16.131000518798828</v>
+      </c>
+      <c r="D142" t="n">
+        <v>16.94300079345703</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="n">
+        <v>18.40999984741211</v>
+      </c>
+      <c r="D143" t="n">
+        <v>18.878000259399414</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D160"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>51958.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>52750.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.054510001093149185</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05480000004172325</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5501899719238281</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.558650016784668</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>370.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.90310001373291</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.972700119018555</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1899.989990234375</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1913.9000244140625</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01558000035583973</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.015799999237060547</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.13835999369621277</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.14499999582767487</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0011500000255182385</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0013569999719038606</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.002199999988079071</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0022770001087337732</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.0078999996185303</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.0999999046325684</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>230.58999633789062</v>
+      </c>
+      <c r="D13" t="n">
+        <v>238.60000610351562</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9961000084877014</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0014600000577047467</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0015872999792918563</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.9900001138448715E-4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.9900001138448715E-4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.895999907399528E-5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.895999907399528E-5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5960999727249146</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6000999808311462</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>265.45001220703125</v>
+      </c>
+      <c r="D19" t="n">
+        <v>270.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.5958000421524048</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.628000020980835</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>714.27001953125</v>
+      </c>
+      <c r="D21" t="n">
+        <v>727.4600219726562</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>258.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.000599980354309</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.0017000436782837</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9980000257492065</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.0019999742507935</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.527699947357178</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6.699999809265137</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5149999856948853</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.669700026512146</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0014140000566840172</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.001449999981559813</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.03976999968290329</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.044599998742341995</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0033289999701082706</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0033289999701082706</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.035100001841783524</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.03568200021982193</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7.089999853633344E-4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7.089999853633344E-4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.10859999805688858</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.10859999805688858</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.10400000214576721</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.10751999914646149</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.5896100997924805</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.6149799823760986</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.08397000283002853</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.08399999886751175</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0016400000313296914</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0016400000313296914</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.013100000098347664</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.013100000098347664</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.800000074785203E-4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.800000074785203E-4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0022100000642240047</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0022100000642240047</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.0099999599333387E-5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.0099999599333387E-5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5101799964904785</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.514240026473999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.724100112915039</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.800000190734863</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.001234999974258244</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0012954999692738056</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.2540000081062317</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.2599000036716461</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.061080001294612885</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.06207999959588051</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.02005000039935112</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.02047000080347061</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.12399999797344208</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.1274999976158142</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.9528700113296509</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.9549999833106995</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0824500024318695</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.0849900022149086</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="n">
+        <v>270.510009765625</v>
+      </c>
+      <c r="D50" t="n">
+        <v>272.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>23.972000122070312</v>
+      </c>
+      <c r="D51" t="n">
+        <v>25.089000701904297</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.4129999876022339</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.4500000476837158</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="n">
+        <v>32.80670166015625</v>
+      </c>
+      <c r="D53" t="n">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7.039999961853027</v>
+      </c>
+      <c r="D54" t="n">
+        <v>7.26200008392334</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="n">
+        <v>15.229499816894531</v>
+      </c>
+      <c r="D55" t="n">
+        <v>16.499500274658203</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.3154000043869019</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.3468999862670898</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="n">
+        <v>163.5399932861328</v>
+      </c>
+      <c r="D57" t="n">
+        <v>172.6051788330078</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="n">
+        <v>11.873900413513184</v>
+      </c>
+      <c r="D58" t="n">
+        <v>11.873900413513184</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.19599999487400055</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.1976500004529953</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.5815100073814392</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.5832399725914001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3.4565000534057617</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.4652000069618225</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.4740000069141388</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.025699999183416367</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.027400000020861626</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.12256000190973282</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.14550000429153442</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.3126299977302551</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.3178099989891052</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="n">
+        <v>33.534000396728516</v>
+      </c>
+      <c r="D66" t="n">
+        <v>34.1609992980957</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.0018100000452250242</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.0018100000452250242</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.23996999859809875</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.26194998621940613</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="n">
+        <v>6.709000110626221</v>
+      </c>
+      <c r="D69" t="n">
+        <v>6.879799842834473</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.013079999946057796</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.013269999995827675</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>27.219999313354492</v>
+      </c>
+      <c r="D71" t="n">
+        <v>28.270000457763672</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.4180000126361847</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.44200000166893005</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.06266000121831894</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.06300000101327896</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.18091000616550446</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.19193999469280243</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.5314000248908997</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.5314000248908997</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.6600000262260437</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.6783000230789185</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.3790000705048442E-4</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.4259999918285757E-4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="n">
+        <v>176.6887969970703</v>
+      </c>
+      <c r="D78" t="n">
+        <v>181.9998016357422</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.03784000128507614</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.03863200172781944</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.21875999867916107</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.22287000715732574</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="n">
+        <v>4.888299942016602</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4.940299987792969</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.028189999982714653</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.02862199954688549</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.0022000074386597</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.0282600000500679</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.029820000752806664</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.0194690003991127</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.0194690003991127</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.30630001425743103</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.3098999857902527</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="n">
+        <v>24.32900047302246</v>
+      </c>
+      <c r="D87" t="n">
+        <v>24.32900047302246</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="n">
+        <v>17.6835994720459</v>
+      </c>
+      <c r="D88" t="n">
+        <v>17.952499389648438</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.05700000002980232</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.05810999870300293</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.23574000597000122</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.06182999908924103</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.06259000301361084</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.0480000972747803</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.0571000576019287</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.010900000110268593</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.011292999610304832</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.5986999869346619</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.6018999814987183</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.7900800108909607</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.8100000023841858</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.05207030102610588</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.05460000038146973</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="n">
+        <v>43.05400085449219</v>
+      </c>
+      <c r="D97" t="n">
+        <v>43.97999954223633</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.7971000075340271</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.8180000185966492</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="n">
+        <v>466.2200012207031</v>
+      </c>
+      <c r="D99" t="n">
+        <v>476.989990234375</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.13499000668525696</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.13539999723434448</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.07739999890327454</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.08425000309944153</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.6388000249862671</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.6600000262260437</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="n">
+        <v>24.295000076293945</v>
+      </c>
+      <c r="D103" t="n">
+        <v>24.665000915527344</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.0369900465011597</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.0560200214385986</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2.4739999771118164</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2.5999999046325684</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2675.179931640625</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2676.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.468899965286255</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2.4690001010894775</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3.958400011062622</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4.031799793243408</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>158.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.019540000706911087</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.02111000008881092</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.022029999643564224</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.022129999473690987</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.14000000059604645</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.14249999821186066</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="n">
+        <v>31.700000762939453</v>
+      </c>
+      <c r="D113" t="n">
+        <v>32.472900390625</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>43971.3203125</v>
+      </c>
+      <c r="D114" t="n">
+        <v>46000.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.024917999282479286</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.02759999968111515</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.250203013420105</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.2735440135002136</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="n">
+        <v>21.579299926757812</v>
+      </c>
+      <c r="D117" t="n">
+        <v>22.17140007019043</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.11999999731779099</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>195.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="n">
+        <v>28.14299964904785</v>
+      </c>
+      <c r="D120" t="n">
+        <v>28.386999130249023</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>3271.179931640625</v>
+      </c>
+      <c r="D121" t="n">
+        <v>3429.080078125</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.7192999720573425</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.7696999907493591</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" t="n">
+        <v>458.97601318359375</v>
+      </c>
+      <c r="D123" t="n">
+        <v>475.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" t="n">
+        <v>43.17369842529297</v>
+      </c>
+      <c r="D124" t="n">
+        <v>44.39699935913086</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2.875999927520752</v>
+      </c>
+      <c r="D125" t="n">
+        <v>3.007999897003174</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="n">
+        <v>4.256499767303467</v>
+      </c>
+      <c r="D126" t="n">
+        <v>4.738999843597412</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" t="n">
+        <v>4.190999984741211</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4.349999904632568</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>41.424598693847656</v>
+      </c>
+      <c r="D128" t="n">
+        <v>41.9900016784668</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.6021999716758728</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.6338000297546387</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.0532509982585907</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.05452600121498108</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.22050000727176666</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.22609999775886536</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.1715999841690063</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.2444000244140625</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.7115999460220337</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.7761000394821167</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>19.999900817871094</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.05279399827122688</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.05400000140070915</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.9850000143051147</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4.900700092315674</v>
+      </c>
+      <c r="D137" t="n">
+        <v>8.800000190734863</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.2750000059604645</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.2978000044822693</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" t="n">
+        <v>16.277000427246094</v>
+      </c>
+      <c r="D139" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" t="n">
+        <v>6.7769999504089355</v>
+      </c>
+      <c r="D140" t="n">
+        <v>7.28000020980835</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>9.699000358581543</v>
+      </c>
+      <c r="D141" t="n">
+        <v>14.739999771118164</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>16.94300079345703</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="n">
+        <v>18.329999923706055</v>
+      </c>
+      <c r="D143" t="n">
+        <v>18.878000259399414</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>